--- a/biology/Zoologie/Hydrillodes/Hydrillodes.xlsx
+++ b/biology/Zoologie/Hydrillodes/Hydrillodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hydrillodes regroupe des lépidoptères (papillons) nocturnes de la famille des Erebidae[1] ou des Noctuidae selon les classifications.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hydrillodes regroupe des lépidoptères (papillons) nocturnes de la famille des Erebidae ou des Noctuidae selon les classifications.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hydrillodes abavalis  (Walker, 1859)
 Hydrillodes aroa  Bethune-Baker, 1908
 Hydrillodes aviculalis  Guenée, 1862
-Hydrillodes captiosalis  (Walker, [1859])
+Hydrillodes captiosalis  (Walker, )
 Hydrillodes carayoni  Viette, 1981
 Hydrillodes chionaemoides  (Rothschild, 1915)
 Hydrillodes comoroana  (Viette, 1981)
@@ -530,7 +544,7 @@
 Hydrillodes eucaula  Prout, 1928
 Hydrillodes fuliginosa  (Rothschild, 1915)
 Hydrillodes funestalis (Walker, 1866)
-Hydrillodes gravatalis (Walker, [1859])
+Hydrillodes gravatalis (Walker, )
 Hydrillodes grisea (Bethune-Baker, 1908)
 Hydrillodes griseoides Poole, 1989
 Hydrillodes hemusalis (Walker, 1859)
@@ -538,7 +552,7 @@
 Hydrillodes inversa (Viette, 1961)
 Hydrillodes janalis (Schaus, 1893)
 Hydrillodes labi Holloway, 2008
-Hydrillodes latifascialis (Walker, [1866])
+Hydrillodes latifascialis (Walker, )
 Hydrillodes lentalis (Guenee, 1854)
 Hydrillodes lugens Prout, 1922
 Hydrillodes mediochracea Bethune-Baker, 1908
